--- a/backlogs/sprint2/stories.xlsx
+++ b/backlogs/sprint2/stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>User story</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>As an admin, I want to view a list of paid applications</t>
+  </si>
+  <si>
+    <t>As a user, I want to view my notifications</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -532,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -601,103 +604,123 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>3.4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>5.4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
